--- a/Data/Variables.xlsx
+++ b/Data/Variables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinqi/Desktop/Data Analysis 2/Assignment_2/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB56F97F-2E55-E849-B2BC-71380473D92A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919FEB59-BF9A-DB49-B4E9-A3D7536583A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{A0BF7D5D-F271-A84F-817F-174733657F00}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{A0BF7D5D-F271-A84F-817F-174733657F00}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="1" r:id="rId1"/>
@@ -72,24 +72,15 @@
     <t>integer</t>
   </si>
   <si>
-    <t>percentage_renewable_eng_consmp</t>
-  </si>
-  <si>
     <t>Renewable energy consumption is the share of renewables energy in total final energy consumption.</t>
   </si>
   <si>
-    <t>gdppc_growth_percentage</t>
-  </si>
-  <si>
     <t>Annual percentage growth rate of GDP per capita based on constant local currency. Aggregates are based on constant 2010 U.S. dollars. GDP per capita is gross domestic product divided by midyear population. GDP at purchaser's prices is the sum of gross value added by all resident producers in the economy plus any product taxes and minus any subsidies not included in the value of the products. It is calculated without making deductions for depreciation of fabricated assets or for depletion and degradation of natural resources.</t>
   </si>
   <si>
     <t>GDP per capita growth (annual %)</t>
   </si>
   <si>
-    <t>gross_capital_formation_percentage</t>
-  </si>
-  <si>
     <t>Annual growth rate of gross capital formation based on constant local currency. Aggregates are based on constant 2010 U.S. dollars. Gross capital formation (formerly gross domestic investment) consists of outlays on additions to the fixed assets of the economy plus net changes in the level of inventories. Fixed assets include land improvements (fences, ditches, drains, and so on); plant, machinery, and equipment purchases; and the construction of roads, railways, and the like, including schools, offices, hospitals, private residential dwellings, and commercial and industrial buildings. Inventories are stocks of goods held by firms to meet temporary or unexpected fluctuations in production or sales, and "work in progress." According to the 1993 SNA, net acquisitions of valuables are also considered capital formation.</t>
   </si>
   <si>
@@ -99,22 +90,31 @@
     <t>Renewable energy consumption (% of total final energy consumption)</t>
   </si>
   <si>
-    <t>pop_growth_percentage</t>
-  </si>
-  <si>
     <t>Annual population growth rate for year t is the exponential rate of growth of midyear population from year t-1 to t, expressed as a percentage . Population is based on the de facto definition of population, which counts all residents regardless of legal status or citizenship.</t>
   </si>
   <si>
     <t>Population growth (annual %)</t>
   </si>
   <si>
-    <t>forest_area_percentage</t>
-  </si>
-  <si>
-    <t>Forest area is land under natural or planted stands of trees of at least 5 meters in situ, whether productive or not, and excludes tree stands in agricultural production systems (for example, in fruit plantations and agroforestry systems) and trees in urban parks and gardens.</t>
-  </si>
-  <si>
-    <t>Forest area (% of land area)</t>
+    <t>renewable_eng</t>
+  </si>
+  <si>
+    <t>gdppc_growth</t>
+  </si>
+  <si>
+    <t>capital_formation</t>
+  </si>
+  <si>
+    <t>pop_growth</t>
+  </si>
+  <si>
+    <t>trade</t>
+  </si>
+  <si>
+    <t>Trade is the sum of exports and imports of goods and services measured as a share of gross domestic product.</t>
+  </si>
+  <si>
+    <t>Trade (% of GDP)</t>
   </si>
 </sst>
 </file>
@@ -497,7 +497,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -552,61 +552,61 @@
     </row>
     <row r="4" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="112" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
